--- a/INB_Auotomation/target/test-classes/excel/testdata.xlsx
+++ b/INB_Auotomation/target/test-classes/excel/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>testname</t>
   </si>
@@ -65,28 +65,25 @@
     <t>Asdf@123</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>CIF2</t>
   </si>
   <si>
-    <t>Asdf@124</t>
-  </si>
-  <si>
-    <t>Asdf@1234</t>
-  </si>
-  <si>
-    <t>CIF5</t>
-  </si>
-  <si>
     <t>browser</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>sdasd</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>asds</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +531,7 @@
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
@@ -551,7 +548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -568,101 +565,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/INB_Auotomation/target/test-classes/excel/testdata.xlsx
+++ b/INB_Auotomation/target/test-classes/excel/testdata.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9744" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>testname</t>
   </si>
@@ -59,31 +59,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>CIF1</t>
-  </si>
-  <si>
     <t>Asdf@123</t>
   </si>
   <si>
-    <t>CIF2</t>
-  </si>
-  <si>
     <t>browser</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>microsoft</t>
-  </si>
-  <si>
-    <t>sdasd</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>asds</t>
+    <t>spcb</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -449,7 +434,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -503,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -512,17 +497,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D2:E3" numberStoredAsText="1"/>
+    <ignoredError sqref="E2 E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +516,7 @@
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -539,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
@@ -548,7 +533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -556,16 +541,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -573,38 +558,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
